--- a/一阶项目文件/晨会日报.xlsx
+++ b/一阶项目文件/晨会日报.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>晨会日报</t>
   </si>
@@ -77,6 +77,41 @@
   </si>
   <si>
     <t>组长签字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>林春通</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、视频播放
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2、课程点击跳转
+3、课程详情动态显示</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、使用阻止事件冒泡方案无法正常执行跳转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、使用普通事件委托加条件判断方案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善所有页面布局然后进行功能补全</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -220,25 +255,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -540,7 +575,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -552,31 +587,31 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="25.5">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1">
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.5">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -589,7 +624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1">
+    <row r="4" spans="1:5" ht="13.5">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -606,12 +641,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+    <row r="5" spans="1:5" ht="40.5">
+      <c r="A5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
       <c r="A6" s="5"/>
@@ -645,9 +690,9 @@
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="6"/>

--- a/一阶项目文件/晨会日报.xlsx
+++ b/一阶项目文件/晨会日报.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjm\Downloads\web work\CY-work\一阶项目文件\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F6BE4073-1067-4FFD-8454-15D8AAA92FFB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>晨会日报</t>
   </si>
@@ -28,9 +34,6 @@
   </si>
   <si>
     <t>组长</t>
-  </si>
-  <si>
-    <t>日期</t>
   </si>
   <si>
     <t>姓名</t>
@@ -76,17 +79,143 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>组长签字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>林春通</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">1布局基本完成就差往学习中西插入现有的选项卡内容。
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态布局上虽然不存在障碍，但布局速度有点慢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多敲多练熟能生巧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补全学习中心功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈建峰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈建川</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗岚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵婷婷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1排序
+2关键词搜索完成一部分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1经过伙伴提醒使用sort()成功实现排序
+2创建一个用于存储搜索课程的数组，执行页面跳转后进行判断打印搜索内容。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1完善搜索功能
+2尝试实现三级联动功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1我的课程
+2订单打印
+3评论完成一半</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造函数里有一个等级的方法，但是获取的时候找不到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例化出来的对象时有这个方法，但是存到本地存储中，因为使用了JSON.stringify()，被转型了，这个方法就没了，暂时将方法拿出来执行，将执行结果传进对象中；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1金币充值功能
+2积分兑换功能
+3我的笔记
+4课程详情页与视频页的链接跳转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频页面完成一半</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买一系列流程无法正常实现，视频模块暂无，布局太丑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠结过但最终还是放弃，进入视频页面，布局重新修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频页面布局功能完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>林春通，王海龙，陈建峰，陈建川，邵婷婷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>林春通</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>传一大狗队</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1排序一开始使用for循环一直出错
+2搜索功能不完善</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成课程包动态打印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现排序分页功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1基本完成订单结算和打印
+2对应课程的课程详情页面打印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应课程打印过程中对于如何安装事件委托区获取课程id有想法无法实现，思路：通过事件委托判断点击的是否为课程显示的div,是的话区查找子级下面的子级标签，获取隐藏域的value值。遍历课程数据进行判断</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">1、视频播放
-</t>
+      <t>再创建节点的时候安装一个点击事件并添加链接地址，在地址后面添加上课程i</t>
     </r>
     <r>
       <rPr>
@@ -97,29 +226,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2、课程点击跳转
-3、课程详情动态显示</t>
+      <t>d，点击之后使用split()进行链接分割提取出id判断</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2、使用阻止事件冒泡方案无法正常执行跳转</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、使用普通事件委托加条件判断方案</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善所有页面布局然后进行功能补全</t>
+    <t>尽可能地完成课程功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期 2018年5月21日</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -224,13 +348,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,11 +405,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -282,6 +429,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -571,14 +726,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
@@ -587,7 +742,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -596,126 +751,190 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="13.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.5">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="40.5">
-      <c r="A5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="B11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -724,12 +943,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/一阶项目文件/晨会日报.xlsx
+++ b/一阶项目文件/晨会日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjm\Downloads\web work\CY-work\一阶项目文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F6BE4073-1067-4FFD-8454-15D8AAA92FFB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{339F7D3A-4829-4141-8A53-E8A5D544970F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,23 +83,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1布局基本完成就差往学习中西插入现有的选项卡内容。
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态布局上虽然不存在障碍，但布局速度有点慢</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>多敲多练熟能生巧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>补全学习中心功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>王海龙</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -236,6 +219,23 @@
   </si>
   <si>
     <t>日期 2018年5月21日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、课程购买完成一半
+2、订单打印实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度太慢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目截止后好好反思进度问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善课程购买功能，实现我的课程打印</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -396,32 +396,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,7 +730,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -743,13 +743,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -761,26 +761,26 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -800,104 +800,104 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>39</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="18" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -905,14 +905,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="C11" s="16"/>
       <c r="D11" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
